--- a/LoveCraftTrial.xlsx
+++ b/LoveCraftTrial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>price(kinda)</t>
+  </si>
+  <si>
+    <t>ppm</t>
   </si>
   <si>
     <t>Debbie Bliss Donegal Luxury Tweed Aran</t>
@@ -593,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,25 +624,28 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>88</v>
@@ -647,25 +653,28 @@
       <c r="H2">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0.09379999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3">
         <v>180</v>
@@ -673,25 +682,28 @@
       <c r="H3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0.0389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4">
         <v>880</v>
@@ -699,25 +711,28 @@
       <c r="H4">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0.09379999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>200</v>
@@ -725,25 +740,28 @@
       <c r="H5">
         <v>8.49</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0.0425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>440</v>
@@ -751,25 +769,28 @@
       <c r="H6">
         <v>41.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0.09379999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7">
         <v>900</v>
@@ -777,25 +798,28 @@
       <c r="H7">
         <v>7.49</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0.0083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>166</v>
@@ -803,25 +827,28 @@
       <c r="H8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>0.0482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>90</v>
@@ -829,25 +856,28 @@
       <c r="H9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>0.4444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10">
         <v>550</v>
@@ -855,25 +885,28 @@
       <c r="H10">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>0.0126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11">
         <v>166</v>
@@ -881,25 +914,28 @@
       <c r="H11">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0.0602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12">
         <v>1800</v>
@@ -907,25 +943,28 @@
       <c r="H12">
         <v>4.49</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13">
         <v>166</v>
@@ -933,25 +972,28 @@
       <c r="H13">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0.4819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14">
         <v>900</v>
@@ -959,25 +1001,28 @@
       <c r="H14">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>0.0077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G15">
         <v>180</v>
@@ -985,25 +1030,28 @@
       <c r="H15">
         <v>8.699999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>0.0483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16">
         <v>199</v>
@@ -1011,25 +1059,28 @@
       <c r="H16">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>0.0349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17">
         <v>137</v>
@@ -1037,25 +1088,28 @@
       <c r="H17">
         <v>9.49</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0.0693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18">
         <v>166</v>
@@ -1063,25 +1117,28 @@
       <c r="H18">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>87</v>
@@ -1089,25 +1146,28 @@
       <c r="H19">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0.1148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>300</v>
@@ -1115,25 +1175,28 @@
       <c r="H20">
         <v>8.49</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>0.0283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21">
         <v>166</v>
@@ -1141,25 +1204,28 @@
       <c r="H21">
         <v>9.49</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>0.0572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>100</v>
@@ -1167,25 +1233,28 @@
       <c r="H22">
         <v>12.99</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>0.1299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G23">
         <v>200</v>
@@ -1193,25 +1262,28 @@
       <c r="H23">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G24">
         <v>140</v>
@@ -1219,31 +1291,37 @@
       <c r="H24">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>0.0446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G25">
         <v>166</v>
       </c>
       <c r="H25">
         <v>9.99</v>
+      </c>
+      <c r="I25">
+        <v>0.0602</v>
       </c>
     </row>
   </sheetData>

--- a/LoveCraftTrial.xlsx
+++ b/LoveCraftTrial.xlsx
@@ -245,6 +245,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -297,8 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -601,35 +605,38 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -653,12 +660,12 @@
       <c r="H2">
         <v>8.25</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>0.09379999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -682,12 +689,12 @@
       <c r="H3">
         <v>7</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>0.0389</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -711,12 +718,12 @@
       <c r="H4">
         <v>82.5</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>0.09379999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -740,12 +747,12 @@
       <c r="H5">
         <v>8.49</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>0.0425</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -769,12 +776,12 @@
       <c r="H6">
         <v>41.25</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>0.09379999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -798,12 +805,12 @@
       <c r="H7">
         <v>7.49</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>0.0083</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -827,12 +834,12 @@
       <c r="H8">
         <v>8</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>0.0482</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -856,12 +863,12 @@
       <c r="H9">
         <v>40</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>0.4444</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -885,12 +892,12 @@
       <c r="H10">
         <v>6.95</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>0.0126</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -914,12 +921,12 @@
       <c r="H11">
         <v>9.99</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>0.0602</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -943,12 +950,12 @@
       <c r="H12">
         <v>4.49</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>0.0025</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -972,12 +979,12 @@
       <c r="H13">
         <v>80</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>0.4819</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1001,12 +1008,12 @@
       <c r="H14">
         <v>6.9</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>0.0077</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1030,12 +1037,12 @@
       <c r="H15">
         <v>8.699999999999999</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>0.0483</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1059,12 +1066,12 @@
       <c r="H16">
         <v>6.95</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>0.0349</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1088,12 +1095,12 @@
       <c r="H17">
         <v>9.49</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>0.0693</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1117,12 +1124,12 @@
       <c r="H18">
         <v>3.49</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>0.021</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1146,12 +1153,12 @@
       <c r="H19">
         <v>9.99</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>0.1148</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1175,12 +1182,12 @@
       <c r="H20">
         <v>8.49</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>0.0283</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -1204,12 +1211,12 @@
       <c r="H21">
         <v>9.49</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>0.0572</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -1233,12 +1240,12 @@
       <c r="H22">
         <v>12.99</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>0.1299</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1262,12 +1269,12 @@
       <c r="H23">
         <v>28</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>0.14</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -1291,12 +1298,12 @@
       <c r="H24">
         <v>6.25</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>0.0446</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1320,7 +1327,7 @@
       <c r="H25">
         <v>9.99</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>0.0602</v>
       </c>
     </row>

--- a/LoveCraftTrial.xlsx
+++ b/LoveCraftTrial.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="welcome"/>
+    <sheet name="welcome" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -38,14 +38,274 @@
   </si>
   <si>
     <t>ppm</t>
+  </si>
+  <si>
+    <t>Debbie Bliss Donegal Luxury Tweed Aran</t>
+  </si>
+  <si>
+    <t>Paintbox Yarns Wool Mix Aran</t>
+  </si>
+  <si>
+    <t>Debbie Bliss Donegal Luxury Tweed Aran 10 Ball Value Pack</t>
+  </si>
+  <si>
+    <t>Cascade 220</t>
+  </si>
+  <si>
+    <t>Debbie Bliss Donegal Luxury Tweed Aran 5 Ball Value Pack</t>
+  </si>
+  <si>
+    <t>Paintbox Yarns Wool Mix Aran 5 Ball Value Pack</t>
+  </si>
+  <si>
+    <t>West Yorkshire Spinners Jacobs Aran</t>
+  </si>
+  <si>
+    <t>Debbie Bliss British Wool Aran</t>
+  </si>
+  <si>
+    <t>Debbie Bliss British Wool Aran 5 Ball Value Pack</t>
+  </si>
+  <si>
+    <t>West Yorkshire Spinners ColourLab Aran Tweed</t>
+  </si>
+  <si>
+    <t>Paintbox Yarns Wool Mix Aran 10 Ball Value Pack</t>
+  </si>
+  <si>
+    <t>West Yorkshire Spinners The Croft</t>
+  </si>
+  <si>
+    <t>Debbie Bliss British Wool Aran 10 Ball Value Pack</t>
+  </si>
+  <si>
+    <t>King Cole Wool Aran</t>
+  </si>
+  <si>
+    <t>Novita 7 Veljestä</t>
+  </si>
+  <si>
+    <t>Cascade Yarns 220 Superwash Aran Wave</t>
+  </si>
+  <si>
+    <t>West Yorkshire Spinners ColourLab Aran</t>
+  </si>
+  <si>
+    <t>Rowan Felted Tweed Aran</t>
+  </si>
+  <si>
+    <t>King Cole Forest Aran</t>
+  </si>
+  <si>
+    <t>West Yorkshire Spinners The Croft - Aran Roving Wild Shetland</t>
+  </si>
+  <si>
+    <t>Noro Kureyon</t>
+  </si>
+  <si>
+    <t>Berroco Ultra Wool</t>
+  </si>
+  <si>
+    <t>Rowan Kid Classic</t>
+  </si>
+  <si>
+    <t>West Yorkshire Spinners Bluefaced Leicester Naturals Aran</t>
+  </si>
+  <si>
+    <t>Berry and Pine Afghan 23 Ball Colour Pack in Paintbox Yarns Wool Mix Aran</t>
+  </si>
+  <si>
+    <t>Paintbox Yarns Rihanna Punch Needle Portrait 8 Ball Colour Pack</t>
+  </si>
+  <si>
+    <t>Paintbox Yarns Wool Mix Aran 10 Ball Colour Pack</t>
+  </si>
+  <si>
+    <t>Paintbox Yarns Wool Mix Aran 20 Ball Value Pack</t>
+  </si>
+  <si>
+    <t>Paintbox Yarns Wool Mix Aran Coastline Cushion 4 Ball Project Yarn Pack</t>
+  </si>
+  <si>
+    <t>Rico Fashion Modern Tweed Aran</t>
+  </si>
+  <si>
+    <t>West Yorkshire Spinners The Croft Aran</t>
+  </si>
+  <si>
+    <t>100% Wool</t>
+  </si>
+  <si>
+    <t>50% Wool 50% Acrylic</t>
+  </si>
+  <si>
+    <t>96% Wool 4% Viscose</t>
+  </si>
+  <si>
+    <t>80% Wool 20% Polyamide</t>
+  </si>
+  <si>
+    <t>50% Wool 25% Alpaca 25% Viscose</t>
+  </si>
+  <si>
+    <t>35% Wool 20% Acrylic 20% Polyamide 25% Viscose</t>
+  </si>
+  <si>
+    <t>70% Wool 22% Mohair 8% Polyamide</t>
+  </si>
+  <si>
+    <t>60% Wool 20% Polyamide 20% Viscose</t>
+  </si>
+  <si>
+    <t>88m (96yds)/50g (1.8oz)</t>
+  </si>
+  <si>
+    <t>180m (197yds)/100g (3.5oz)</t>
+  </si>
+  <si>
+    <t>880m (962yds)/500g (17.6oz)</t>
+  </si>
+  <si>
+    <t>200m (219yds)/100g (3.5oz)</t>
+  </si>
+  <si>
+    <t>440m (481yds)/250g (8.8oz)</t>
+  </si>
+  <si>
+    <t>900m (984yds)/500g (17.6oz)</t>
+  </si>
+  <si>
+    <t>166m (182yds)/100g (3.5oz)</t>
+  </si>
+  <si>
+    <t>90m (98yds)/50g (1.8oz)</t>
+  </si>
+  <si>
+    <t>550m (601yds)/250g (8.8oz)</t>
+  </si>
+  <si>
+    <t>1800m (1969yds)/1000g (35.3oz)</t>
+  </si>
+  <si>
+    <t>199m (218yds)/100g (3.5oz)</t>
+  </si>
+  <si>
+    <t>137m (150yds)/100g (3.5oz)</t>
+  </si>
+  <si>
+    <t>87m (95yds)/50g (1.8oz)</t>
+  </si>
+  <si>
+    <t>300m (328yds)/100g (3.5oz)</t>
+  </si>
+  <si>
+    <t>100m (109yds)/50g (1.8oz)</t>
+  </si>
+  <si>
+    <t>140m (153yds)/50g (1.8oz)</t>
+  </si>
+  <si>
+    <t>4140m (4528yds)/2300g (81.1oz)</t>
+  </si>
+  <si>
+    <t>1440m (1575yds)/800g (28.2oz)</t>
+  </si>
+  <si>
+    <t>3600m (3937yds)/2000g (70.5oz)</t>
+  </si>
+  <si>
+    <t>720m (787yds)/400g (14.1oz)</t>
+  </si>
+  <si>
+    <t>95m (104yds)/50g (1.8oz)</t>
+  </si>
+  <si>
+    <t>Aran</t>
+  </si>
+  <si>
+    <t>£8.25</t>
+  </si>
+  <si>
+    <t>£7.00</t>
+  </si>
+  <si>
+    <t>£82.50</t>
+  </si>
+  <si>
+    <t>£8.49</t>
+  </si>
+  <si>
+    <t>£41.25</t>
+  </si>
+  <si>
+    <t>£35.00</t>
+  </si>
+  <si>
+    <t>£7.49</t>
+  </si>
+  <si>
+    <t>£8.00</t>
+  </si>
+  <si>
+    <t>£40.00</t>
+  </si>
+  <si>
+    <t>£6.95</t>
+  </si>
+  <si>
+    <t>£70.00</t>
+  </si>
+  <si>
+    <t>£9.99</t>
+  </si>
+  <si>
+    <t>£80.00</t>
+  </si>
+  <si>
+    <t>£4.99</t>
+  </si>
+  <si>
+    <t>£6.90</t>
+  </si>
+  <si>
+    <t>£8.70</t>
+  </si>
+  <si>
+    <t>£9.49</t>
+  </si>
+  <si>
+    <t>£3.49</t>
+  </si>
+  <si>
+    <t>£10.99</t>
+  </si>
+  <si>
+    <t>£12.99</t>
+  </si>
+  <si>
+    <t>£161.00</t>
+  </si>
+  <si>
+    <t>£56.00</t>
+  </si>
+  <si>
+    <t>£140.00</t>
+  </si>
+  <si>
+    <t>£28.00</t>
+  </si>
+  <si>
+    <t>£6.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,9 +316,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,16 +340,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -96,28 +357,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -126,10 +377,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -167,71 +418,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -255,53 +504,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -311,7 +561,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -320,7 +570,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -329,7 +579,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -337,10 +587,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -369,7 +619,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -382,12 +632,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -405,29 +656,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:9">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -451,6 +690,905 @@
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2">
+        <v>88</v>
+      </c>
+      <c r="H2">
+        <v>8.25</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.09379999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <v>180</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.0389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4">
+        <v>880</v>
+      </c>
+      <c r="H4">
+        <v>82.5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.09379999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <v>8.49</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.0425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6">
+        <v>440</v>
+      </c>
+      <c r="H6">
+        <v>41.25</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.09379999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.0389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>166</v>
+      </c>
+      <c r="H8">
+        <v>7.49</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.0451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9">
+        <v>90</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.08890000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10">
+        <v>550</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.0727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11">
+        <v>166</v>
+      </c>
+      <c r="H11">
+        <v>6.95</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.0419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>1800</v>
+      </c>
+      <c r="H12">
+        <v>70</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.0389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13">
+        <v>166</v>
+      </c>
+      <c r="H13">
+        <v>9.99</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.0602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14">
+        <v>900</v>
+      </c>
+      <c r="H14">
+        <v>80</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.08890000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15">
+        <v>180</v>
+      </c>
+      <c r="H15">
+        <v>4.99</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.0277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16">
+        <v>199</v>
+      </c>
+      <c r="H16">
+        <v>6.9</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.0347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17">
+        <v>137</v>
+      </c>
+      <c r="H17">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.0635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18">
+        <v>166</v>
+      </c>
+      <c r="H18">
+        <v>6.95</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.0419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19">
+        <v>87</v>
+      </c>
+      <c r="H19">
+        <v>9.49</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.1091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20">
+        <v>300</v>
+      </c>
+      <c r="H20">
+        <v>3.49</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.0116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21">
+        <v>166</v>
+      </c>
+      <c r="H21">
+        <v>9.99</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.0602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>8.49</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.0849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23">
+        <v>200</v>
+      </c>
+      <c r="H23">
+        <v>10.99</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.0549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24">
+        <v>140</v>
+      </c>
+      <c r="H24">
+        <v>9.49</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.0678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25">
+        <v>166</v>
+      </c>
+      <c r="H25">
+        <v>12.99</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.07829999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26">
+        <v>4140</v>
+      </c>
+      <c r="H26">
+        <v>161</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.0389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27">
+        <v>1440</v>
+      </c>
+      <c r="H27">
+        <v>56</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.0389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28">
+        <v>1800</v>
+      </c>
+      <c r="H28">
+        <v>70</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.0389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29">
+        <v>3600</v>
+      </c>
+      <c r="H29">
+        <v>140</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.0389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30">
+        <v>720</v>
+      </c>
+      <c r="H30">
+        <v>28</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.0389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31">
+        <v>95</v>
+      </c>
+      <c r="H31">
+        <v>6.25</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.0658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32">
+        <v>166</v>
+      </c>
+      <c r="H32">
+        <v>9.99</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.0602</v>
       </c>
     </row>
   </sheetData>
